--- a/database/oks.xlsx
+++ b/database/oks.xlsx
@@ -425,35 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -554,6 +532,104 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>createdAt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dsfsdf</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sfsdf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sfsdf</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sfdsf</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2332</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3431</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>dfsf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>sfdsf</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>sfsdf</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>8001092.0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>8001092.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2332.0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>8001092.0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>10-Oct-24</t>
         </is>
       </c>
     </row>
